--- a/public/reports/sales-report.xlsx
+++ b/public/reports/sales-report.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>SNEAKY - SALES REPORT</t>
   </si>
   <si>
-    <t>Report Period: N/A to N/A</t>
-  </si>
-  <si>
-    <t>Generated On: 8/5/2025</t>
+    <t>Report Period: 2024-03-04 to 2025-05-16</t>
+  </si>
+  <si>
+    <t>Generated On: 16/5/2025</t>
   </si>
   <si>
     <t>SUMMARY</t>
@@ -64,55 +64,37 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>ORD371842</t>
-  </si>
-  <si>
-    <t>Anbu Kumar</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
+    <t>ORD948915</t>
+  </si>
+  <si>
+    <t>samantha</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>CashOnDelivery</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ORD508834</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>ORD792538</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
   </si>
   <si>
     <t>Razorpay</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>ORD948915</t>
-  </si>
-  <si>
-    <t>samantha</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>CashOnDelivery</t>
-  </si>
-  <si>
-    <t>ORD508834</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>ORD792538</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
     <t>thjk</t>
-  </si>
-  <si>
-    <t>ORD611497</t>
-  </si>
-  <si>
-    <t>Shyam</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -517,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -579,16 +561,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>13543</v>
+        <v>3693</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>2708.6</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -640,10 +622,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="6">
-        <v>6750</v>
+        <v>2579</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
@@ -660,19 +642,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
-        <v>2579</v>
+        <v>394</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>21</v>
@@ -683,79 +665,27 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>720</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>394</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="6">
-        <v>720</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>

--- a/public/reports/sales-report.xlsx
+++ b/public/reports/sales-report.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SNEAKY - SALES REPORT</t>
   </si>
   <si>
-    <t>Report Period: 2024-03-04 to 2025-05-16</t>
-  </si>
-  <si>
-    <t>Generated On: 16/5/2025</t>
+    <t>Report Period: 2025-05-10 to 2025-05-17</t>
+  </si>
+  <si>
+    <t>Generated On: 17/5/2025</t>
   </si>
   <si>
     <t>SUMMARY</t>
@@ -64,37 +64,19 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>ORD948915</t>
+    <t>ORD916937</t>
   </si>
   <si>
     <t>samantha</t>
   </si>
   <si>
-    <t>2025-04-15</t>
+    <t>2025-05-17</t>
   </si>
   <si>
     <t>CashOnDelivery</t>
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>ORD508834</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>ORD792538</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
-    <t>Razorpay</t>
-  </si>
-  <si>
-    <t>thjk</t>
   </si>
 </sst>
 </file>
@@ -499,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -561,16 +543,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>3693</v>
+        <v>6751</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1231</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -622,10 +604,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6">
-        <v>2579</v>
+        <v>6751</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
@@ -634,58 +616,6 @@
         <v>21</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6">
-        <v>394</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6">
-        <v>720</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
